--- a/Client/配置表/excels/CameraAction.xlsx
+++ b/Client/配置表/excels/CameraAction.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="CloseUpClip" sheetId="1" r:id="rId1"/>
     <sheet name="说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>int</t>
   </si>
@@ -106,18 +106,128 @@
     <t>亮度系数,变化时间,
 维持时间,重置时间</t>
   </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,300,300,100</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,0,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,0,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,0,240</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>240</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,0,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,4,1170,400</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0,1800,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,0,1800,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6,0,800</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,0,150,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,350 +271,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -512,255 +312,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,58 +367,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1151,21 +665,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="11.25" style="12" customWidth="1"/>
     <col min="2" max="2" width="12" style="12" customWidth="1"/>
@@ -1180,7 +693,7 @@
     <col min="11" max="16384" width="10" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1197,14 +710,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:5">
+    <row r="2" spans="1:6" s="10" customFormat="1">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" s="11" customFormat="1" ht="18" spans="1:6">
+    <row r="3" spans="1:6" s="11" customFormat="1" ht="18">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -1265,60 +778,122 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14"/>
@@ -1376,7 +951,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" ht="15.95" customHeight="1" spans="1:6">
+    <row r="20" spans="1:6" ht="15.95" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -1457,22 +1032,21 @@
       <c r="F29" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
@@ -1504,7 +1078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1521,7 +1095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="161.25" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="161.25" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>17</v>
@@ -1539,27 +1113,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1"/>
-    <row r="5" ht="16.5" customHeight="1"/>
+    <row r="4" spans="1:6" ht="21" customHeight="1"/>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/配置表/excels/CameraAction.xlsx
+++ b/Client/配置表/excels/CameraAction.xlsx
@@ -135,10 +135,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3,4,0,200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>4,4,0,200</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -220,6 +216,10 @@
   </si>
   <si>
     <t>70,0,150,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2,0,200</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +675,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.25"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>25</v>
@@ -807,45 +807,45 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>27</v>
@@ -855,44 +855,44 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">

--- a/Client/配置表/excels/CameraAction.xlsx
+++ b/Client/配置表/excels/CameraAction.xlsx
@@ -66,9 +66,6 @@
     <t>80,300,300,100</t>
   </si>
   <si>
-    <t>10,70,300,300</t>
-  </si>
-  <si>
     <t>1特写
 2晃动
 4亮度</t>
@@ -111,19 +108,55 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,300,300,100</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>200</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>240</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>6</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>70,300,300,100</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
+    <t>1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -131,47 +164,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,0,200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,0,240</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>240</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,0,200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+    <t>800</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -179,47 +176,51 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1800</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>5,4,1170,400</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>10,0,1800,200</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>80,0,1800,200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,6,0,800</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>70,0,150,200</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3,2,0,200</t>
+    <t>110,0,1800,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,70,300,300</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,0,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,10,0,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,10,0,800</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,0,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,0,240</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,10,1200,300</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +676,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.25"/>
@@ -771,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>15</v>
@@ -779,120 +780,120 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="C6" s="14" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="E12" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1043,7 +1044,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1098,19 +1099,19 @@
     <row r="3" spans="1:6" ht="161.25" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1"/>

--- a/Client/配置表/excels/CameraAction.xlsx
+++ b/Client/配置表/excels/CameraAction.xlsx
@@ -112,10 +112,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>70,300,300,100</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -144,18 +140,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>6</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>7</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -180,14 +168,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>10,0,1800,200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,0,150,200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>110,0,1800,200</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -221,6 +201,26 @@
   </si>
   <si>
     <t>24,10,1200,300</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0,500,0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,800,1000,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,300,300,100</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +676,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.25"/>
@@ -772,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>15</v>
@@ -786,114 +786,114 @@
         <v>22</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>41</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>42</v>
-      </c>
       <c r="E12" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Client/配置表/excels/CameraAction.xlsx
+++ b/Client/配置表/excels/CameraAction.xlsx
@@ -180,47 +180,47 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>10,10,0,200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>2,10,0,200</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>5,10,0,240</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,10,1200,300</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0,500,0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,800,1000,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,300,300,100</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,10,0,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,0,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>8,10,0,800</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10,0,200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10,0,240</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,10,1200,300</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,0,500,0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,800,1000,200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,300,300,100</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -790,10 +790,10 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -808,7 +808,7 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" s="14"/>
     </row>
@@ -833,15 +833,15 @@
         <v>29</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -856,7 +856,7 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="14"/>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F11" s="14"/>
     </row>
@@ -890,10 +890,10 @@
         <v>37</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">

--- a/Client/配置表/excels/CameraAction.xlsx
+++ b/Client/配置表/excels/CameraAction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>int</t>
   </si>
@@ -221,6 +221,30 @@
   </si>
   <si>
     <t>8,10,0,800</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,0,200,100</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,10,0,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,0,200,100</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +700,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.25"/>
@@ -897,12 +921,24 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14"/>

--- a/Client/配置表/excels/CameraAction.xlsx
+++ b/Client/配置表/excels/CameraAction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>int</t>
   </si>
@@ -232,19 +232,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,0,200,100</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,10,0,200</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,0,200,100</t>
+    <t>50,0,300,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,0,300,200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,0,200</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +696,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.25"/>
@@ -928,7 +924,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>54</v>
@@ -937,7 +933,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
